--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl21b-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl21b-Ccr10.xlsx
@@ -88,7 +88,7 @@
     <t>Ccr10</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,43 +537,43 @@
         <v>0.2073196666666667</v>
       </c>
       <c r="H2">
-        <v>0.621959</v>
+        <v>0.6219589999999999</v>
       </c>
       <c r="I2">
-        <v>0.4385567570045023</v>
+        <v>0.6398583988494134</v>
       </c>
       <c r="J2">
-        <v>0.4385567570045023</v>
+        <v>0.6398583988494134</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.4846943333333333</v>
+        <v>0.5706193333333334</v>
       </c>
       <c r="N2">
-        <v>1.454083</v>
+        <v>1.711858</v>
       </c>
       <c r="O2">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130462</v>
       </c>
       <c r="P2">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130463</v>
       </c>
       <c r="Q2">
-        <v>0.1004866676218889</v>
+        <v>0.1183006099802222</v>
       </c>
       <c r="R2">
-        <v>0.9043800085970001</v>
+        <v>1.064705489822</v>
       </c>
       <c r="S2">
-        <v>0.2821242805941828</v>
+        <v>0.2680136805049</v>
       </c>
       <c r="T2">
-        <v>0.2821242805941828</v>
+        <v>0.2680136805049001</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,13 +599,13 @@
         <v>0.2073196666666667</v>
       </c>
       <c r="H3">
-        <v>0.621959</v>
+        <v>0.6219589999999999</v>
       </c>
       <c r="I3">
-        <v>0.4385567570045023</v>
+        <v>0.6398583988494134</v>
       </c>
       <c r="J3">
-        <v>0.4385567570045023</v>
+        <v>0.6398583988494134</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,28 +614,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.2197996666666667</v>
+        <v>0.4846943333333333</v>
       </c>
       <c r="N3">
-        <v>0.6593990000000001</v>
+        <v>1.454083</v>
       </c>
       <c r="O3">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="P3">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="Q3">
-        <v>0.04556879362677779</v>
+        <v>0.1004866676218889</v>
       </c>
       <c r="R3">
-        <v>0.4101191426410001</v>
+        <v>0.9043800085969997</v>
       </c>
       <c r="S3">
-        <v>0.1279379983807827</v>
+        <v>0.2276556446794106</v>
       </c>
       <c r="T3">
-        <v>0.1279379983807827</v>
+        <v>0.2276556446794107</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,43 +661,43 @@
         <v>0.2073196666666667</v>
       </c>
       <c r="H4">
-        <v>0.621959</v>
+        <v>0.6219589999999999</v>
       </c>
       <c r="I4">
-        <v>0.4385567570045023</v>
+        <v>0.6398583988494134</v>
       </c>
       <c r="J4">
-        <v>0.4385567570045023</v>
+        <v>0.6398583988494134</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.048954</v>
+        <v>0.3069883333333334</v>
       </c>
       <c r="N4">
-        <v>0.146862</v>
+        <v>0.920965</v>
       </c>
       <c r="O4">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="P4">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="Q4">
-        <v>0.010149126962</v>
+        <v>0.06364471893722222</v>
       </c>
       <c r="R4">
-        <v>0.091342142658</v>
+        <v>0.572802470435</v>
       </c>
       <c r="S4">
-        <v>0.02849447802953674</v>
+        <v>0.1441890736651027</v>
       </c>
       <c r="T4">
-        <v>0.02849447802953674</v>
+        <v>0.1441890736651027</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -720,46 +720,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.265412</v>
+        <v>0.116689</v>
       </c>
       <c r="H5">
-        <v>0.7962359999999999</v>
+        <v>0.350067</v>
       </c>
       <c r="I5">
-        <v>0.5614432429954977</v>
+        <v>0.3601416011505865</v>
       </c>
       <c r="J5">
-        <v>0.5614432429954979</v>
+        <v>0.3601416011505865</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.4846943333333333</v>
+        <v>0.5706193333333334</v>
       </c>
       <c r="N5">
-        <v>1.454083</v>
+        <v>1.711858</v>
       </c>
       <c r="O5">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130462</v>
       </c>
       <c r="P5">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130463</v>
       </c>
       <c r="Q5">
-        <v>0.1286436923986667</v>
+        <v>0.06658499938733334</v>
       </c>
       <c r="R5">
-        <v>1.157793231588</v>
+        <v>0.599264994486</v>
       </c>
       <c r="S5">
-        <v>0.36117735844837</v>
+        <v>0.1508503697081461</v>
       </c>
       <c r="T5">
-        <v>0.36117735844837</v>
+        <v>0.1508503697081462</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +773,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -782,16 +782,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.265412</v>
+        <v>0.116689</v>
       </c>
       <c r="H6">
-        <v>0.7962359999999999</v>
+        <v>0.350067</v>
       </c>
       <c r="I6">
-        <v>0.5614432429954977</v>
+        <v>0.3601416011505865</v>
       </c>
       <c r="J6">
-        <v>0.5614432429954979</v>
+        <v>0.3601416011505865</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,28 +800,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2197996666666667</v>
+        <v>0.4846943333333333</v>
       </c>
       <c r="N6">
-        <v>0.6593990000000001</v>
+        <v>1.454083</v>
       </c>
       <c r="O6">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="P6">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="Q6">
-        <v>0.05833746912933334</v>
+        <v>0.05655849706233333</v>
       </c>
       <c r="R6">
-        <v>0.5250372221640001</v>
+        <v>0.5090264735609999</v>
       </c>
       <c r="S6">
-        <v>0.1637870664766019</v>
+        <v>0.1281350194562459</v>
       </c>
       <c r="T6">
-        <v>0.1637870664766019</v>
+        <v>0.1281350194562459</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +835,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -844,46 +844,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.265412</v>
+        <v>0.116689</v>
       </c>
       <c r="H7">
-        <v>0.7962359999999999</v>
+        <v>0.350067</v>
       </c>
       <c r="I7">
-        <v>0.5614432429954977</v>
+        <v>0.3601416011505865</v>
       </c>
       <c r="J7">
-        <v>0.5614432429954979</v>
+        <v>0.3601416011505865</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.048954</v>
+        <v>0.3069883333333334</v>
       </c>
       <c r="N7">
-        <v>0.146862</v>
+        <v>0.920965</v>
       </c>
       <c r="O7">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="P7">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="Q7">
-        <v>0.012992979048</v>
+        <v>0.03582216162833333</v>
       </c>
       <c r="R7">
-        <v>0.116936811432</v>
+        <v>0.322399454655</v>
       </c>
       <c r="S7">
-        <v>0.03647881807052589</v>
+        <v>0.08115621198619442</v>
       </c>
       <c r="T7">
-        <v>0.0364788180705259</v>
+        <v>0.08115621198619442</v>
       </c>
     </row>
   </sheetData>
